--- a/Connectors.xlsx
+++ b/Connectors.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>5v dc motor drv</t>
   </si>
@@ -30,12 +31,6 @@
     <t>gnd dc motor drv</t>
   </si>
   <si>
-    <t>uart 3 TX</t>
-  </si>
-  <si>
-    <t>uart 3 RX</t>
-  </si>
-  <si>
     <t>PH0</t>
   </si>
   <si>
@@ -54,13 +49,130 @@
     <t>2B dc motor drv</t>
   </si>
   <si>
+    <t>PH7</t>
+  </si>
+  <si>
     <t>1PWM dc motor drv</t>
   </si>
   <si>
     <t>2PWM dc motor drv</t>
   </si>
   <si>
-    <t>A20 PIO-3</t>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>PB8</t>
+  </si>
+  <si>
+    <t>PB10</t>
+  </si>
+  <si>
+    <t>PB11</t>
+  </si>
+  <si>
+    <t>PB12</t>
+  </si>
+  <si>
+    <t>PB13</t>
+  </si>
+  <si>
+    <t>PB14</t>
+  </si>
+  <si>
+    <t>PB15</t>
+  </si>
+  <si>
+    <t>PB16</t>
+  </si>
+  <si>
+    <t>PB17</t>
+  </si>
+  <si>
+    <t>PH24</t>
+  </si>
+  <si>
+    <t>PH25</t>
+  </si>
+  <si>
+    <t>PH26</t>
+  </si>
+  <si>
+    <t>PH27</t>
+  </si>
+  <si>
+    <t>jtag</t>
+  </si>
+  <si>
+    <t>SATA PWR??</t>
+  </si>
+  <si>
+    <t>PH9</t>
+  </si>
+  <si>
+    <t>PH10</t>
+  </si>
+  <si>
+    <t>PH11</t>
+  </si>
+  <si>
+    <t>PH12</t>
+  </si>
+  <si>
+    <t>PH13</t>
+  </si>
+  <si>
+    <t>PH14</t>
+  </si>
+  <si>
+    <t>PH15</t>
+  </si>
+  <si>
+    <t>PH16</t>
+  </si>
+  <si>
+    <t>PH17</t>
+  </si>
+  <si>
+    <t>PH18</t>
+  </si>
+  <si>
+    <t>PH19</t>
+  </si>
+  <si>
+    <t>PH20</t>
+  </si>
+  <si>
+    <t>PH21</t>
+  </si>
+  <si>
+    <t>PH22</t>
+  </si>
+  <si>
+    <t>PH23</t>
+  </si>
+  <si>
+    <t>servo1</t>
+  </si>
+  <si>
+    <t>servo2</t>
+  </si>
+  <si>
+    <t>A20 GPIO-3</t>
   </si>
 </sst>
 </file>
@@ -105,10 +217,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,28 +522,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E24"/>
+  <dimension ref="A4:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -445,7 +557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -459,11 +571,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
@@ -473,15 +582,21 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -490,10 +605,19 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
       <c r="C9">
         <v>9</v>
       </c>
@@ -501,10 +625,16 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
       <c r="C10">
         <v>11</v>
       </c>
@@ -512,10 +642,16 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
       <c r="C11">
         <v>13</v>
       </c>
@@ -523,19 +659,33 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
       <c r="C12">
         <v>15</v>
       </c>
       <c r="D12">
         <v>16</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
       <c r="C13">
         <v>17</v>
       </c>
@@ -543,95 +693,182 @@
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
       <c r="C14">
         <v>19</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
       <c r="C15">
         <v>21</v>
       </c>
       <c r="D15">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
       <c r="C16">
         <v>23</v>
       </c>
       <c r="D16">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
       <c r="C17">
         <v>25</v>
       </c>
       <c r="D17">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
       <c r="C18">
         <v>27</v>
       </c>
       <c r="D18">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
       <c r="C19">
         <v>29</v>
       </c>
       <c r="D19">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
       <c r="C20">
         <v>31</v>
       </c>
       <c r="D20">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
       <c r="C21">
         <v>33</v>
       </c>
       <c r="D21">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
       <c r="C22">
         <v>35</v>
       </c>
       <c r="D22">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
       <c r="C23">
         <v>37</v>
       </c>
       <c r="D23">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
       <c r="C24">
         <v>39</v>
       </c>
       <c r="D24">
         <v>40</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Connectors.xlsx
+++ b/Connectors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="96" windowWidth="26820" windowHeight="13512"/>
+    <workbookView xWindow="96" yWindow="96" windowWidth="9504" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
   <si>
     <t>5v dc motor drv</t>
   </si>
@@ -173,6 +173,132 @@
   </si>
   <si>
     <t>A20 GPIO-3</t>
+  </si>
+  <si>
+    <t>A20 GPIO-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5v </t>
+  </si>
+  <si>
+    <t>i2c-0 SDA</t>
+  </si>
+  <si>
+    <t>GYRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2c-0 SCK </t>
+  </si>
+  <si>
+    <t>PI0</t>
+  </si>
+  <si>
+    <t>PI1</t>
+  </si>
+  <si>
+    <t>PI2</t>
+  </si>
+  <si>
+    <t>PI3</t>
+  </si>
+  <si>
+    <t>PI10</t>
+  </si>
+  <si>
+    <t>PI11</t>
+  </si>
+  <si>
+    <t>PC3/NCE1</t>
+  </si>
+  <si>
+    <t>PC7/NRB1</t>
+  </si>
+  <si>
+    <t>PC16</t>
+  </si>
+  <si>
+    <t>PC17</t>
+  </si>
+  <si>
+    <t>PC18</t>
+  </si>
+  <si>
+    <t>PC23</t>
+  </si>
+  <si>
+    <t>PC24/NQS</t>
+  </si>
+  <si>
+    <t>gnd PCB</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>3.3V</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>gnd GYRO</t>
+  </si>
+  <si>
+    <t>GYRO PWR</t>
+  </si>
+  <si>
+    <t>GYRO AD0</t>
+  </si>
+  <si>
+    <t>GYRO INT</t>
+  </si>
+  <si>
+    <t>PI14</t>
+  </si>
+  <si>
+    <t>PI15</t>
+  </si>
+  <si>
+    <t>PE11</t>
+  </si>
+  <si>
+    <t>PE0</t>
+  </si>
+  <si>
+    <t>PE1</t>
+  </si>
+  <si>
+    <t>PE2</t>
+  </si>
+  <si>
+    <t>PE3</t>
+  </si>
+  <si>
+    <t>PE4</t>
+  </si>
+  <si>
+    <t>PE5</t>
+  </si>
+  <si>
+    <t>PE6</t>
+  </si>
+  <si>
+    <t>PE7</t>
+  </si>
+  <si>
+    <t>PE8</t>
+  </si>
+  <si>
+    <t>PE9</t>
+  </si>
+  <si>
+    <t>PE10</t>
+  </si>
+  <si>
+    <t>UART0-RX</t>
+  </si>
+  <si>
+    <t>UART0-TX</t>
   </si>
 </sst>
 </file>
@@ -215,12 +341,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G24"/>
+  <dimension ref="A4:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,9 +998,346 @@
         <v>31</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>6</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="3">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="3">
+        <v>9</v>
+      </c>
+      <c r="D31" s="3">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="3">
+        <v>11</v>
+      </c>
+      <c r="D32" s="3">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3">
+        <v>14</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3">
+        <v>15</v>
+      </c>
+      <c r="D34" s="3">
+        <v>16</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3">
+        <v>17</v>
+      </c>
+      <c r="D35" s="3">
+        <v>18</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3">
+        <v>19</v>
+      </c>
+      <c r="D36" s="3">
+        <v>20</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3">
+        <v>21</v>
+      </c>
+      <c r="D37" s="3">
+        <v>22</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3">
+        <v>23</v>
+      </c>
+      <c r="D38" s="3">
+        <v>24</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3">
+        <v>25</v>
+      </c>
+      <c r="D39" s="3">
+        <v>26</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3">
+        <v>27</v>
+      </c>
+      <c r="D40" s="3">
+        <v>28</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3">
+        <v>29</v>
+      </c>
+      <c r="D41" s="3">
+        <v>30</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3">
+        <v>31</v>
+      </c>
+      <c r="D42" s="3">
+        <v>32</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3">
+        <v>33</v>
+      </c>
+      <c r="D43" s="3">
+        <v>34</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3">
+        <v>35</v>
+      </c>
+      <c r="D44" s="3">
+        <v>36</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3">
+        <v>37</v>
+      </c>
+      <c r="D45" s="3">
+        <v>38</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3">
+        <v>39</v>
+      </c>
+      <c r="D46" s="3">
+        <v>40</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
